--- a/Main/bin/Debug/TabelaShiftReduce.xlsx
+++ b/Main/bin/Debug/TabelaShiftReduce.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-UFG\Disciplinas\Compiladores1\TrabalhoT2\ProjetoCompilador\Main\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-UFG\Projetos\Compilador\Main\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,9 +35,6 @@
     <t>varfim</t>
   </si>
   <si>
-    <t>PT_V</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -65,12 +62,6 @@
     <t>se</t>
   </si>
   <si>
-    <t>AB_P</t>
-  </si>
-  <si>
-    <t>FC_P</t>
-  </si>
-  <si>
     <t>fimse</t>
   </si>
   <si>
@@ -360,6 +351,15 @@
   </si>
   <si>
     <t>E17</t>
+  </si>
+  <si>
+    <t>pt_v</t>
+  </si>
+  <si>
+    <t>ab_p</t>
+  </si>
+  <si>
+    <t>fc_p</t>
   </si>
 </sst>
 </file>
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -758,106 +758,106 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -865,70 +865,70 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X2" s="2">
         <v>1</v>
@@ -939,70 +939,70 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1010,70 +1010,70 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Y4" s="2">
         <v>3</v>
@@ -1084,70 +1084,70 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="V5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="W5" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Z5" s="2">
         <v>5</v>
@@ -1170,70 +1170,70 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AA6" s="2">
         <v>23</v>
@@ -1247,70 +1247,70 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1318,70 +1318,70 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="Q8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="W8" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Z8" s="2">
         <v>15</v>
@@ -1404,70 +1404,70 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="Q9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="W9" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Z9" s="2">
         <v>46</v>
@@ -1490,70 +1490,70 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="Q10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="W10" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Z10" s="2">
         <v>47</v>
@@ -1573,70 +1573,70 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1644,70 +1644,70 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1715,70 +1715,70 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1786,70 +1786,70 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1857,70 +1857,70 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="Q15" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AD15" s="2">
         <v>19</v>
@@ -1943,70 +1943,70 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2014,70 +2014,70 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2085,70 +2085,70 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2156,70 +2156,70 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AE19" s="2">
         <v>33</v>
@@ -2230,70 +2230,70 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2301,70 +2301,70 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="Q21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AD21" s="2">
         <v>19</v>
@@ -2387,70 +2387,70 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="Q22" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AD22" s="2">
         <v>19</v>
@@ -2473,70 +2473,70 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="Q23" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AD23" s="2">
         <v>19</v>
@@ -2559,70 +2559,70 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2630,70 +2630,70 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2701,70 +2701,70 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AA26" s="2">
         <v>51</v>
@@ -2778,70 +2778,70 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2849,70 +2849,70 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2920,70 +2920,70 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AC29" s="2">
         <v>28</v>
@@ -2994,70 +2994,70 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3065,70 +3065,70 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3136,70 +3136,70 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:37" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3207,70 +3207,70 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:37" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3278,70 +3278,70 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:37" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3349,70 +3349,70 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:37" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3420,70 +3420,70 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:37" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3491,70 +3491,70 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:37" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3562,70 +3562,70 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:37" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3633,70 +3633,70 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AG39" s="2">
         <v>39</v>
@@ -3710,70 +3710,70 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AH40" s="2">
         <v>53</v>
@@ -3787,70 +3787,70 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:37" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3858,70 +3858,70 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:37" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3929,70 +3929,70 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:37" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4000,70 +4000,70 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:37" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4071,70 +4071,70 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AH45" s="2">
         <v>45</v>
@@ -4145,70 +4145,70 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V46" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:37" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4216,70 +4216,70 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:37" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4287,70 +4287,70 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="W48" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4358,70 +4358,70 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="W49" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4429,70 +4429,70 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V50" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4500,70 +4500,70 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="V51" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4571,70 +4571,70 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4642,70 +4642,70 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="V53" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4713,70 +4713,70 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4784,70 +4784,70 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T55" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4855,70 +4855,70 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="S56" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4926,70 +4926,70 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AH57" s="2">
         <v>57</v>
@@ -5000,70 +5000,70 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="U58" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5071,70 +5071,70 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5142,70 +5142,70 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="U60" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="V60" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="W60" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">

--- a/Main/bin/Debug/TabelaShiftReduce.xlsx
+++ b/Main/bin/Debug/TabelaShiftReduce.xlsx
@@ -314,15 +314,9 @@
     <t>E2</t>
   </si>
   <si>
-    <t>E5</t>
-  </si>
-  <si>
     <t>E6</t>
   </si>
   <si>
-    <t>E7</t>
-  </si>
-  <si>
     <t>E8</t>
   </si>
   <si>
@@ -360,6 +354,12 @@
   </si>
   <si>
     <t>fc_p</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>E19</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -424,6 +424,34 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -432,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -440,16 +468,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,19 +772,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="22" width="9.140625" style="6"/>
-    <col min="23" max="23" width="9.140625" style="3"/>
-    <col min="24" max="35" width="9.140625" style="6"/>
-    <col min="36" max="36" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9" style="6" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="22" width="9.140625" style="4"/>
+    <col min="23" max="23" width="9.140625" style="7"/>
+    <col min="24" max="35" width="9.140625" style="4"/>
+    <col min="36" max="36" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9" style="4" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -758,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -794,10 +834,10 @@
         <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>91</v>
@@ -811,10 +851,10 @@
       <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -864,7 +904,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1001,7 +1041,7 @@
       <c r="V3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1012,7 +1052,7 @@
       <c r="B4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1072,7 +1112,7 @@
       <c r="V4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="7" t="s">
         <v>95</v>
       </c>
       <c r="Y4" s="2">
@@ -1084,70 +1124,70 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="P5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="V5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="2" t="s">
-        <v>108</v>
+      <c r="W5" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="Z5" s="2">
         <v>5</v>
@@ -1170,70 +1210,70 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="AA6" s="2">
         <v>23</v>
@@ -1309,7 +1349,7 @@
       <c r="V7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="W7" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1318,70 +1358,70 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="V8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="2" t="s">
-        <v>98</v>
+      <c r="W8" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="Z8" s="2">
         <v>15</v>
@@ -1404,70 +1444,70 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="V9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W9" s="2" t="s">
-        <v>98</v>
+      <c r="W9" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="Z9" s="2">
         <v>46</v>
@@ -1490,70 +1530,70 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="V10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W10" s="2" t="s">
-        <v>98</v>
+      <c r="W10" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="Z10" s="2">
         <v>47</v>
@@ -1635,7 +1675,7 @@
       <c r="V11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="5" t="s">
+      <c r="W11" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1644,70 +1684,70 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1715,70 +1755,70 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1797,7 +1837,7 @@
       <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1809,10 +1849,10 @@
       <c r="I14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -1827,7 +1867,7 @@
       <c r="O14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="Q14" s="2" t="s">
@@ -1842,13 +1882,13 @@
       <c r="T14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="U14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="V14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W14" s="5" t="s">
+      <c r="W14" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1857,70 +1897,70 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="U15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="U15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="AD15" s="2">
         <v>19</v>
@@ -1943,70 +1983,70 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>45</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2076,7 +2116,7 @@
       <c r="V17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="W17" s="5" t="s">
+      <c r="W17" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2084,70 +2124,70 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="S18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="T18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="U18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="V18" s="4" t="s">
+      <c r="V18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="W18" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2156,70 +2196,70 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L19" s="4" t="s">
+      <c r="G19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>96</v>
+      <c r="N19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="AE19" s="2">
         <v>33</v>
@@ -2230,70 +2270,70 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>51</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>52</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>51</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="U20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="V20" s="4" t="s">
+      <c r="V20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W20" s="2" t="s">
-        <v>97</v>
+      <c r="W20" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2301,70 +2341,70 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P21" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="U21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="U21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="AD21" s="2">
         <v>19</v>
@@ -2387,70 +2427,70 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="U22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="U22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="AD22" s="2">
         <v>19</v>
@@ -2473,70 +2513,70 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="U23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="U23" s="3" t="s">
         <v>44</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="AD23" s="2">
         <v>19</v>
@@ -2558,70 +2598,70 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="P24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="S24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="T24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="U24" s="4" t="s">
+      <c r="U24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="V24" s="4" t="s">
+      <c r="V24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="W24" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2641,7 +2681,7 @@
       <c r="E25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -2653,10 +2693,10 @@
       <c r="I25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="3" t="s">
         <v>54</v>
       </c>
       <c r="L25" s="2" t="s">
@@ -2671,7 +2711,7 @@
       <c r="O25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="P25" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q25" s="2" t="s">
@@ -2689,10 +2729,10 @@
       <c r="U25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="V25" s="4" t="s">
+      <c r="V25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="W25" s="2" t="s">
+      <c r="W25" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2701,70 +2741,70 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="W26" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="AA26" s="2">
         <v>51</v>
@@ -2778,70 +2818,70 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2860,7 +2900,7 @@
       <c r="E28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -2872,10 +2912,10 @@
       <c r="I28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="3" t="s">
         <v>56</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -2890,7 +2930,7 @@
       <c r="O28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="P28" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q28" s="2" t="s">
@@ -2908,10 +2948,10 @@
       <c r="U28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V28" s="4" t="s">
+      <c r="V28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W28" s="2" t="s">
+      <c r="W28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2920,70 +2960,70 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="3" t="s">
         <v>59</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="AC29" s="2">
         <v>28</v>
@@ -2994,70 +3034,70 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3073,7 +3113,7 @@
       <c r="D31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -3127,7 +3167,7 @@
       <c r="V31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W31" s="2" t="s">
+      <c r="W31" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3144,7 +3184,7 @@
       <c r="D32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -3198,7 +3238,7 @@
       <c r="V32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="W32" s="2" t="s">
+      <c r="W32" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3215,7 +3255,7 @@
       <c r="D33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -3269,7 +3309,7 @@
       <c r="V33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="W33" s="2" t="s">
+      <c r="W33" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3283,13 +3323,13 @@
       <c r="C34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -3340,7 +3380,7 @@
       <c r="V34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="W34" s="2" t="s">
+      <c r="W34" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3349,70 +3389,70 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:37" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3422,67 +3462,67 @@
       <c r="B36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="N36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="O36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="P36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="Q36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="R36" s="2" t="s">
+      <c r="R36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S36" s="2" t="s">
+      <c r="S36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="T36" s="2" t="s">
+      <c r="T36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="U36" s="2" t="s">
+      <c r="U36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="V36" s="2" t="s">
+      <c r="V36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="W36" s="2" t="s">
+      <c r="W36" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3493,67 +3533,67 @@
       <c r="B37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="N37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="O37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="P37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="Q37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="R37" s="2" t="s">
+      <c r="R37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="S37" s="2" t="s">
+      <c r="S37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="T37" s="2" t="s">
+      <c r="T37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U37" s="2" t="s">
+      <c r="U37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="V37" s="2" t="s">
+      <c r="V37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="W37" s="2" t="s">
+      <c r="W37" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3564,67 +3604,67 @@
       <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="N38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="O38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="P38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="Q38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R38" s="2" t="s">
+      <c r="R38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="S38" s="2" t="s">
+      <c r="S38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T38" s="2" t="s">
+      <c r="T38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="U38" s="2" t="s">
+      <c r="U38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="V38" s="2" t="s">
+      <c r="V38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="W38" s="2" t="s">
+      <c r="W38" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3633,70 +3673,70 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M39" s="4" t="s">
+      <c r="G39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M39" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="T39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="U39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="W39" s="3" t="s">
-        <v>106</v>
+      <c r="N39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="R39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="S39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="T39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="U39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="V39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="W39" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="AG39" s="2">
         <v>39</v>
@@ -3710,70 +3750,70 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M40" s="4" t="s">
+      <c r="G40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M40" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N40" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="U40" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="V40" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="W40" s="3" t="s">
-        <v>106</v>
+      <c r="N40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="R40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="S40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="T40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="U40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="V40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="W40" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="AH40" s="2">
         <v>53</v>
@@ -3787,70 +3827,70 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="V41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>100</v>
+      <c r="F41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="T41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="U41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="V41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="W41" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:37" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3858,70 +3898,70 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O42" s="4" t="s">
+      <c r="F42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O42" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="P42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="U42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="V42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>107</v>
+      <c r="P42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="R42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="S42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="T42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="U42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="V42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="W42" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:37" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3931,67 +3971,67 @@
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="N43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="O43" s="4" t="s">
+      <c r="O43" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="P43" s="2" t="s">
+      <c r="P43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="Q43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="R43" s="4" t="s">
+      <c r="R43" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="S43" s="2" t="s">
+      <c r="S43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="T43" s="4" t="s">
+      <c r="T43" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="U43" s="2" t="s">
+      <c r="U43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="V43" s="2" t="s">
+      <c r="V43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="W43" s="2" t="s">
+      <c r="W43" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3999,70 +4039,70 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="N44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="O44" s="4" t="s">
+      <c r="O44" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="P44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="Q44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="R44" s="4" t="s">
+      <c r="R44" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="S44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="T44" s="4" t="s">
+      <c r="T44" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="U44" s="3" t="s">
+      <c r="U44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="V44" s="3" t="s">
+      <c r="V44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="W44" s="3" t="s">
+      <c r="W44" s="7" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4071,70 +4111,70 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M45" s="4" t="s">
+      <c r="G45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M45" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="U45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="V45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>106</v>
+      <c r="N45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="R45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="S45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="T45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="U45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="V45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="W45" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="AH45" s="2">
         <v>45</v>
@@ -4144,70 +4184,70 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J46" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="L46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="M46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="N46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="O46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="P46" s="4" t="s">
+      <c r="P46" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="Q46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="R46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="S46" s="3" t="s">
+      <c r="S46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="T46" s="3" t="s">
+      <c r="T46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="U46" s="4" t="s">
+      <c r="U46" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="V46" s="4" t="s">
+      <c r="V46" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="W46" s="3" t="s">
+      <c r="W46" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4218,67 +4258,67 @@
       <c r="B47" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="N47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="O47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="P47" s="2" t="s">
+      <c r="P47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="Q47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="R47" s="2" t="s">
+      <c r="R47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S47" s="2" t="s">
+      <c r="S47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="T47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="U47" s="2" t="s">
+      <c r="U47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="V47" s="2" t="s">
+      <c r="V47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="W47" s="2" t="s">
+      <c r="W47" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4289,67 +4329,67 @@
       <c r="B48" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="N48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="O48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="P48" s="2" t="s">
+      <c r="P48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="Q48" s="2" t="s">
+      <c r="Q48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="R48" s="2" t="s">
+      <c r="R48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="S48" s="2" t="s">
+      <c r="S48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="T48" s="2" t="s">
+      <c r="T48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="U48" s="2" t="s">
+      <c r="U48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="V48" s="2" t="s">
+      <c r="V48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="W48" s="5" t="s">
+      <c r="W48" s="8" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4360,67 +4400,67 @@
       <c r="B49" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="N49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="O49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="P49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="Q49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="R49" s="2" t="s">
+      <c r="R49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="S49" s="2" t="s">
+      <c r="S49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="T49" s="2" t="s">
+      <c r="T49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="U49" s="2" t="s">
+      <c r="U49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="V49" s="2" t="s">
+      <c r="V49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="W49" s="5" t="s">
+      <c r="W49" s="8" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4431,67 +4471,67 @@
       <c r="B50" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J50" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="N50" s="2" t="s">
+      <c r="N50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="O50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="P50" s="4" t="s">
+      <c r="P50" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="Q50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="R50" s="2" t="s">
+      <c r="R50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="S50" s="2" t="s">
+      <c r="S50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="T50" s="2" t="s">
+      <c r="T50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="U50" s="4" t="s">
+      <c r="U50" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="V50" s="4" t="s">
+      <c r="V50" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="W50" s="2" t="s">
+      <c r="W50" s="7" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4502,67 +4542,67 @@
       <c r="B51" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="J51" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="N51" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="O51" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="P51" s="4" t="s">
+      <c r="P51" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="Q51" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="R51" s="2" t="s">
+      <c r="R51" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="S51" s="2" t="s">
+      <c r="S51" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="T51" s="2" t="s">
+      <c r="T51" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="U51" s="4" t="s">
+      <c r="U51" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="V51" s="4" t="s">
+      <c r="V51" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="W51" s="2" t="s">
+      <c r="W51" s="7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4573,67 +4613,67 @@
       <c r="B52" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="J52" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="K52" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="N52" s="2" t="s">
+      <c r="N52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="O52" s="2" t="s">
+      <c r="O52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="P52" s="4" t="s">
+      <c r="P52" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="Q52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="R52" s="2" t="s">
+      <c r="R52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="S52" s="2" t="s">
+      <c r="S52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="T52" s="2" t="s">
+      <c r="T52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="U52" s="4" t="s">
+      <c r="U52" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="V52" s="4" t="s">
+      <c r="V52" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="W52" s="2" t="s">
+      <c r="W52" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4644,67 +4684,67 @@
       <c r="B53" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="J53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="K53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="N53" s="2" t="s">
+      <c r="N53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="O53" s="2" t="s">
+      <c r="O53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="P53" s="4" t="s">
+      <c r="P53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="Q53" s="2" t="s">
+      <c r="Q53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="R53" s="2" t="s">
+      <c r="R53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="S53" s="2" t="s">
+      <c r="S53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="T53" s="2" t="s">
+      <c r="T53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="U53" s="2" t="s">
+      <c r="U53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="V53" s="4" t="s">
+      <c r="V53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="W53" s="2" t="s">
+      <c r="W53" s="7" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4713,70 +4753,70 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="R54" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="R54" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="S54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="U54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="V54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>103</v>
+      <c r="S54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="U54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="V54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="W54" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4784,70 +4824,70 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="S55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="T55" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="R55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="S55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="T55" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="U55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="V55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="W55" s="2" t="s">
-        <v>105</v>
+      <c r="U55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="V55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="W55" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4855,70 +4895,70 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="S56" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S56" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="T56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="U56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="V56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="W56" s="2" t="s">
-        <v>104</v>
+      <c r="T56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="U56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="V56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="W56" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4926,70 +4966,70 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F57" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M57" s="4" t="s">
+      <c r="G57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M57" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="U57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="V57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>106</v>
+      <c r="N57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="R57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="S57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="T57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="U57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="V57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="W57" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="AH57" s="2">
         <v>57</v>
@@ -5002,67 +5042,67 @@
       <c r="B58" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="J58" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="K58" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="L58" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="N58" s="2" t="s">
+      <c r="N58" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="O58" s="2" t="s">
+      <c r="O58" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="P58" s="4" t="s">
+      <c r="P58" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="Q58" s="2" t="s">
+      <c r="Q58" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="R58" s="2" t="s">
+      <c r="R58" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="S58" s="2" t="s">
+      <c r="S58" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="T58" s="2" t="s">
+      <c r="T58" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="U58" s="4" t="s">
+      <c r="U58" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="V58" s="2" t="s">
+      <c r="V58" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="W58" s="2" t="s">
+      <c r="W58" s="7" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5073,67 +5113,67 @@
       <c r="B59" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="L59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="N59" s="2" t="s">
+      <c r="N59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="O59" s="2" t="s">
+      <c r="O59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="P59" s="2" t="s">
+      <c r="P59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="Q59" s="2" t="s">
+      <c r="Q59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="R59" s="4" t="s">
+      <c r="R59" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="S59" s="2" t="s">
+      <c r="S59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="T59" s="2" t="s">
+      <c r="T59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="U59" s="2" t="s">
+      <c r="U59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="V59" s="2" t="s">
+      <c r="V59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="W59" s="2" t="s">
+      <c r="W59" s="7" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5144,67 +5184,67 @@
       <c r="B60" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J60" s="4" t="s">
+      <c r="J60" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="K60" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="L60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="N60" s="2" t="s">
+      <c r="N60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O60" s="2" t="s">
+      <c r="O60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="P60" s="4" t="s">
+      <c r="P60" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="Q60" s="2" t="s">
+      <c r="Q60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="R60" s="2" t="s">
+      <c r="R60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S60" s="2" t="s">
+      <c r="S60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="T60" s="2" t="s">
+      <c r="T60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="U60" s="4" t="s">
+      <c r="U60" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="V60" s="4" t="s">
+      <c r="V60" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="W60" s="5" t="s">
+      <c r="W60" s="8" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Main/bin/Debug/TabelaShiftReduce.xlsx
+++ b/Main/bin/Debug/TabelaShiftReduce.xlsx
@@ -323,9 +323,6 @@
     <t>E9</t>
   </si>
   <si>
-    <t>E14</t>
-  </si>
-  <si>
     <t>E15</t>
   </si>
   <si>
@@ -338,9 +335,6 @@
     <t>E13</t>
   </si>
   <si>
-    <t>E10</t>
-  </si>
-  <si>
     <t>E16</t>
   </si>
   <si>
@@ -360,6 +354,12 @@
   </si>
   <si>
     <t>E19</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>E21</t>
   </si>
 </sst>
 </file>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -798,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -834,10 +834,10 @@
         <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>91</v>
@@ -1124,28 +1124,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>33</v>
@@ -1154,40 +1154,40 @@
         <v>34</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Z5" s="2">
         <v>5</v>
@@ -1210,70 +1210,70 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="AA6" s="2">
         <v>23</v>
@@ -1358,28 +1358,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>33</v>
@@ -1388,40 +1388,40 @@
         <v>34</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z8" s="2">
         <v>15</v>
@@ -1444,28 +1444,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>33</v>
@@ -1474,40 +1474,40 @@
         <v>34</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z9" s="2">
         <v>46</v>
@@ -1530,28 +1530,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>33</v>
@@ -1560,40 +1560,40 @@
         <v>34</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z10" s="2">
         <v>47</v>
@@ -1684,70 +1684,70 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1897,28 +1897,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>42</v>
@@ -1927,40 +1927,40 @@
         <v>34</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AD15" s="2">
         <v>19</v>
@@ -2196,34 +2196,34 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>49</v>
@@ -2232,34 +2232,34 @@
         <v>50</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="V19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE19" s="2">
         <v>33</v>
@@ -2341,28 +2341,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>33</v>
@@ -2371,40 +2371,40 @@
         <v>34</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AD21" s="2">
         <v>19</v>
@@ -2427,28 +2427,28 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>42</v>
@@ -2457,40 +2457,40 @@
         <v>34</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="W22" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AD22" s="2">
         <v>19</v>
@@ -2513,28 +2513,28 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>42</v>
@@ -2543,40 +2543,40 @@
         <v>34</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>44</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AD23" s="2">
         <v>19</v>
@@ -2741,70 +2741,70 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="W26" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="AA26" s="2">
         <v>51</v>
@@ -2960,19 +2960,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>57</v>
@@ -2984,46 +2984,46 @@
         <v>59</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC29" s="2">
         <v>28</v>
@@ -3673,70 +3673,70 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>70</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M39" s="10" t="s">
         <v>71</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="T39" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="U39" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="V39" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="W39" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AG39" s="2">
         <v>39</v>
@@ -3750,70 +3750,70 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>70</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>71</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="T40" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="U40" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="V40" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="W40" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AH40" s="2">
         <v>53</v>
@@ -3898,70 +3898,70 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>92</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O42" s="10" t="s">
         <v>73</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="R42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="V42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W42" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:37" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4111,70 +4111,70 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>70</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M45" s="10" t="s">
         <v>71</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="R45" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="U45" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="V45" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="W45" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AH45" s="2">
         <v>45</v>
@@ -4753,70 +4753,70 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R54" s="10" t="s">
         <v>83</v>
       </c>
       <c r="S54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W54" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4824,70 +4824,70 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T55" s="10" t="s">
         <v>84</v>
       </c>
       <c r="U55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W55" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4895,70 +4895,70 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S56" s="10" t="s">
         <v>85</v>
       </c>
       <c r="T56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V56" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W56" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4966,70 +4966,70 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>70</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M57" s="10" t="s">
         <v>71</v>
       </c>
       <c r="N57" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="R57" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="S57" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="T57" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="U57" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="V57" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="W57" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AH57" s="2">
         <v>57</v>
